--- a/data/formularios/FormularioDAPCobana2.xlsx
+++ b/data/formularios/FormularioDAPCobana2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Luis\drive1\Haiti_DR_Woodfuel_Mapping2016\FieldWork_SepOct2019\Plots\Hinche\Cobana\Cobana2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16880"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$P$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -213,42 +213,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -256,23 +256,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -287,7 +287,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -330,7 +330,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -343,32 +360,11 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,77 +666,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U111"/>
+  <dimension ref="A2:U76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:I2"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="4"/>
+    <col min="1" max="1" width="11.33203125" style="4"/>
     <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" style="4"/>
-    <col min="6" max="6" width="14.9296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="4"/>
+    <col min="6" max="6" width="15" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.19921875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.19921875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.9296875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.3984375" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.9296875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.3984375" style="5"/>
-    <col min="21" max="21" width="14.1328125" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="11.3984375" style="4"/>
+    <col min="18" max="18" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="5"/>
+    <col min="21" max="21" width="14.1640625" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="11.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="29">
         <v>43768</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:21">
       <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -752,18 +748,18 @@
       <c r="Q3" s="16"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21">
       <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -797,7 +793,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -815,7 +811,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,7 +841,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -861,30 +857,30 @@
       <c r="R8"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -896,16 +892,16 @@
       <c r="R9"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+    <row r="10" spans="1:21">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -919,25 +915,25 @@
       <c r="R10"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="1:21">
+      <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="21">
         <v>73</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="21">
         <v>0</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="21">
         <v>2</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -949,25 +945,25 @@
       <c r="R11"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="1:21">
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="21">
         <v>45</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="21">
         <v>12</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="21">
         <v>2</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -979,25 +975,25 @@
       <c r="R12"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B13" s="36" t="s">
+    <row r="13" spans="1:21">
+      <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="21">
         <v>37</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="21">
         <v>11.5</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="21">
         <v>2</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -1009,25 +1005,25 @@
       <c r="R13"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="1:21">
+      <c r="B14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="21">
         <v>33.4</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="21">
         <v>12.1</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="21">
         <v>2</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1039,25 +1035,25 @@
       <c r="R14"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="1:21">
+      <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="21">
         <v>40.5</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="21">
         <v>7.2</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="21">
         <v>2</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -1069,25 +1065,25 @@
       <c r="R15"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="B16" s="36" t="s">
+    <row r="16" spans="1:21">
+      <c r="B16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="21">
         <v>60</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="21">
         <v>0</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="21">
         <v>2</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -1099,25 +1095,25 @@
       <c r="R16"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B17" s="36" t="s">
+    <row r="17" spans="2:19">
+      <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="21">
         <v>87</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="21">
         <v>0</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="21">
         <v>4</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -1129,25 +1125,25 @@
       <c r="R17"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="2:19">
+      <c r="B18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="21">
         <v>25.5</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="21">
         <v>3</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="21">
         <v>0</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -1159,25 +1155,25 @@
       <c r="R18"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="2:19">
+      <c r="B19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="21">
         <v>32</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="21">
         <v>2</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="21">
         <v>0</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -1189,25 +1185,25 @@
       <c r="R19"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B20" s="36" t="s">
+    <row r="20" spans="2:19">
+      <c r="B20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="21">
         <v>49</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="21">
         <v>0</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="21">
         <v>0</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -1219,1075 +1215,355 @@
       <c r="R20"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:19">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:19">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:19">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:19">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:19">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:19">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:19">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:19">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:19">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:19">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:19">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
+    <row r="32" spans="2:19">
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
+    <row r="33" spans="19:19">
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
+    <row r="34" spans="19:19">
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
+    <row r="35" spans="19:19">
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
+    <row r="36" spans="19:19">
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
+    <row r="37" spans="19:19">
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38" s="7"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
+    <row r="39" spans="19:19">
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41"/>
+    <row r="40" spans="19:19">
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="19:19">
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42"/>
+    <row r="42" spans="19:19">
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43"/>
+    <row r="43" spans="19:19">
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
+    <row r="44" spans="19:19">
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
+    <row r="45" spans="19:19">
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
+    <row r="46" spans="19:19">
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
+    <row r="47" spans="19:19">
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
+    <row r="48" spans="19:19">
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
+    <row r="49" spans="19:19">
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
+    <row r="50" spans="19:19">
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
+    <row r="51" spans="19:19">
       <c r="S51" s="7"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
+    <row r="52" spans="19:19">
       <c r="S52" s="7"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
+    <row r="53" spans="19:19">
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
+    <row r="54" spans="19:19">
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
+    <row r="55" spans="19:19">
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
+    <row r="56" spans="19:19">
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
+    <row r="57" spans="19:19">
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
+    <row r="58" spans="19:19">
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
+    <row r="59" spans="19:19">
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="S60" s="7"/>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
+    <row r="61" spans="19:19">
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
+    <row r="62" spans="19:19">
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
+    <row r="63" spans="19:19">
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
+    <row r="64" spans="19:19">
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
+    <row r="65" spans="19:19">
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
+    <row r="66" spans="19:19">
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="67" spans="19:19">
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="68" spans="19:19">
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="69" spans="19:19">
       <c r="S69" s="7"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="70" spans="19:19">
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="71" spans="19:19">
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="72" spans="19:19">
       <c r="S72" s="7"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="73" spans="19:19">
+      <c r="S73" s="7"/>
+    </row>
+    <row r="74" spans="19:19">
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="75" spans="19:19">
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="76" spans="19:19">
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="S77" s="7"/>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="S78" s="7"/>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="S79" s="7"/>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="S80" s="7"/>
-    </row>
-    <row r="81" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S81" s="7"/>
-    </row>
-    <row r="82" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S82" s="7"/>
-    </row>
-    <row r="83" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S83" s="7"/>
-    </row>
-    <row r="84" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S84" s="7"/>
-    </row>
-    <row r="85" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S85" s="7"/>
-    </row>
-    <row r="86" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S86" s="7"/>
-    </row>
-    <row r="87" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S87" s="7"/>
-    </row>
-    <row r="88" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S88" s="7"/>
-    </row>
-    <row r="89" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S89" s="7"/>
-    </row>
-    <row r="90" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S90" s="7"/>
-    </row>
-    <row r="91" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S91" s="7"/>
-    </row>
-    <row r="92" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S92" s="7"/>
-    </row>
-    <row r="93" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S93" s="7"/>
-    </row>
-    <row r="94" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S94" s="7"/>
-    </row>
-    <row r="96" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S96" s="7"/>
-    </row>
-    <row r="97" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S97" s="7"/>
-    </row>
-    <row r="98" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S98" s="7"/>
-    </row>
-    <row r="99" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S99" s="7"/>
-    </row>
-    <row r="100" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S100" s="7"/>
-    </row>
-    <row r="101" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S101" s="7"/>
-    </row>
-    <row r="102" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S102" s="7"/>
-    </row>
-    <row r="103" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S103" s="7"/>
-    </row>
-    <row r="104" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S104" s="7"/>
-    </row>
-    <row r="105" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S105" s="7"/>
-    </row>
-    <row r="106" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S106" s="7"/>
-    </row>
-    <row r="107" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S107" s="7"/>
-    </row>
-    <row r="108" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S108" s="7"/>
-    </row>
-    <row r="109" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S109" s="7"/>
-    </row>
-    <row r="110" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="19:19" x14ac:dyDescent="0.5">
-      <c r="S111" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O43:Q43"/>
+  <mergeCells count="13">
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2297,9 +1573,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2309,8 +1590,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>